--- a/presidentUSA.xlsx
+++ b/presidentUSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmpav\Documents\GitHub\pracML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE84680-AB3D-4CFA-8A1B-1E66CE221B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D807A77E-C769-419C-8161-F4A33D1EC41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD19"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
